--- a/ThaumAge/Assets/Data/Excel/excel_infusionaltar_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_infusionaltar_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>100004&amp;100005&amp;100005</t>
+  </si>
+  <si>
+    <t>2:15&amp;4:10</t>
   </si>
   <si>
     <t>测试</t>
@@ -1028,8 +1034,8 @@
   <sheetPr/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1105,19 +1111,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>111</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
+        <v>100003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1"/>
